--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il18-Il18r1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il18-Il18r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,247 +528,1115 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>4.25267382904582</v>
+        <v>0.097665</v>
       </c>
       <c r="H2">
-        <v>4.25267382904582</v>
+        <v>0.19533</v>
       </c>
       <c r="I2">
-        <v>0.07438807655306358</v>
+        <v>0.001582406724321514</v>
       </c>
       <c r="J2">
-        <v>0.07438807655306358</v>
+        <v>0.001075431277232573</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.443981297567456</v>
+        <v>0.5420666666666666</v>
       </c>
       <c r="N2">
-        <v>0.443981297567456</v>
+        <v>1.6262</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.541124568792399</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.541124568792399</v>
       </c>
       <c r="Q2">
-        <v>1.888107644750925</v>
+        <v>0.05294094099999999</v>
       </c>
       <c r="R2">
-        <v>1.888107644750925</v>
+        <v>0.317645646</v>
       </c>
       <c r="S2">
-        <v>0.07438807655306358</v>
+        <v>0.0008562791563526721</v>
       </c>
       <c r="T2">
-        <v>0.07438807655306358</v>
+        <v>0.0005819422861583351</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>20.3417610070971</v>
+        <v>0.097665</v>
       </c>
       <c r="H3">
-        <v>20.3417610070971</v>
+        <v>0.19533</v>
       </c>
       <c r="I3">
-        <v>0.3558195469130485</v>
+        <v>0.001582406724321514</v>
       </c>
       <c r="J3">
-        <v>0.3558195469130485</v>
+        <v>0.001075431277232573</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.443981297567456</v>
+        <v>0.086968</v>
       </c>
       <c r="N3">
-        <v>0.443981297567456</v>
+        <v>0.260904</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.08681685186091016</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.08681685186091016</v>
       </c>
       <c r="Q3">
-        <v>9.031361446738051</v>
+        <v>0.008493729720000001</v>
       </c>
       <c r="R3">
-        <v>9.031361446738051</v>
+        <v>0.05096237832000001</v>
       </c>
       <c r="S3">
-        <v>0.3558195469130485</v>
+        <v>0.000137379570169129</v>
       </c>
       <c r="T3">
-        <v>0.3558195469130485</v>
+        <v>9.336555788208973E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>30.0910015202822</v>
+        <v>0.097665</v>
       </c>
       <c r="H4">
-        <v>30.0910015202822</v>
+        <v>0.19533</v>
       </c>
       <c r="I4">
-        <v>0.5263539633255488</v>
+        <v>0.001582406724321514</v>
       </c>
       <c r="J4">
-        <v>0.5263539633255488</v>
+        <v>0.001075431277232573</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.443981297567456</v>
+        <v>0.3727063333333334</v>
       </c>
       <c r="N4">
-        <v>0.443981297567456</v>
+        <v>1.118119</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.3720585793466908</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.3720585793466908</v>
       </c>
       <c r="Q4">
-        <v>13.35984190007918</v>
+        <v>0.036400364045</v>
       </c>
       <c r="R4">
-        <v>13.35984190007918</v>
+        <v>0.21840218427</v>
       </c>
       <c r="S4">
-        <v>0.5263539633255488</v>
+        <v>0.0005887479977997132</v>
       </c>
       <c r="T4">
-        <v>0.5263539633255488</v>
+        <v>0.0004001234331921484</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4.603443333333334</v>
+      </c>
+      <c r="H5">
+        <v>13.81033</v>
+      </c>
+      <c r="I5">
+        <v>0.07458679860441011</v>
+      </c>
+      <c r="J5">
+        <v>0.07603573865204179</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.5420666666666666</v>
+      </c>
+      <c r="N5">
+        <v>1.6262</v>
+      </c>
+      <c r="O5">
+        <v>0.541124568792399</v>
+      </c>
+      <c r="P5">
+        <v>0.541124568792399</v>
+      </c>
+      <c r="Q5">
+        <v>2.495373182888889</v>
+      </c>
+      <c r="R5">
+        <v>22.458358646</v>
+      </c>
+      <c r="S5">
+        <v>0.04036074923241693</v>
+      </c>
+      <c r="T5">
+        <v>0.04114480629089766</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4.603443333333334</v>
+      </c>
+      <c r="H6">
+        <v>13.81033</v>
+      </c>
+      <c r="I6">
+        <v>0.07458679860441011</v>
+      </c>
+      <c r="J6">
+        <v>0.07603573865204179</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.086968</v>
+      </c>
+      <c r="N6">
+        <v>0.260904</v>
+      </c>
+      <c r="O6">
+        <v>0.08681685186091016</v>
+      </c>
+      <c r="P6">
+        <v>0.08681685186091016</v>
+      </c>
+      <c r="Q6">
+        <v>0.4003522598133334</v>
+      </c>
+      <c r="R6">
+        <v>3.60317033832</v>
+      </c>
+      <c r="S6">
+        <v>0.006475391045218614</v>
+      </c>
+      <c r="T6">
+        <v>0.006601183458689193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.603443333333334</v>
+      </c>
+      <c r="H7">
+        <v>13.81033</v>
+      </c>
+      <c r="I7">
+        <v>0.07458679860441011</v>
+      </c>
+      <c r="J7">
+        <v>0.07603573865204179</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.3727063333333334</v>
+      </c>
+      <c r="N7">
+        <v>1.118119</v>
+      </c>
+      <c r="O7">
+        <v>0.3720585793466908</v>
+      </c>
+      <c r="P7">
+        <v>0.3720585793466908</v>
+      </c>
+      <c r="Q7">
+        <v>1.715732485474445</v>
+      </c>
+      <c r="R7">
+        <v>15.44159236927</v>
+      </c>
+      <c r="S7">
+        <v>0.02775065832677457</v>
+      </c>
+      <c r="T7">
+        <v>0.02828974890245493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>23.02695066666666</v>
+      </c>
+      <c r="H8">
+        <v>69.08085199999999</v>
+      </c>
+      <c r="I8">
+        <v>0.3730917071167062</v>
+      </c>
+      <c r="J8">
+        <v>0.3803394711445981</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.5420666666666666</v>
+      </c>
+      <c r="N8">
+        <v>1.6262</v>
+      </c>
+      <c r="O8">
+        <v>0.541124568792399</v>
+      </c>
+      <c r="P8">
+        <v>0.541124568792399</v>
+      </c>
+      <c r="Q8">
+        <v>12.48214239137777</v>
+      </c>
+      <c r="R8">
+        <v>112.3392815224</v>
+      </c>
+      <c r="S8">
+        <v>0.2018890891335477</v>
+      </c>
+      <c r="T8">
+        <v>0.2058110323178497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>23.02695066666666</v>
+      </c>
+      <c r="H9">
+        <v>69.08085199999999</v>
+      </c>
+      <c r="I9">
+        <v>0.3730917071167062</v>
+      </c>
+      <c r="J9">
+        <v>0.3803394711445981</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.086968</v>
+      </c>
+      <c r="N9">
+        <v>0.260904</v>
+      </c>
+      <c r="O9">
+        <v>0.08681685186091016</v>
+      </c>
+      <c r="P9">
+        <v>0.08681685186091016</v>
+      </c>
+      <c r="Q9">
+        <v>2.002607845578666</v>
+      </c>
+      <c r="R9">
+        <v>18.023470610208</v>
+      </c>
+      <c r="S9">
+        <v>0.03239064746728516</v>
+      </c>
+      <c r="T9">
+        <v>0.03301987552321749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>23.02695066666666</v>
+      </c>
+      <c r="H10">
+        <v>69.08085199999999</v>
+      </c>
+      <c r="I10">
+        <v>0.3730917071167062</v>
+      </c>
+      <c r="J10">
+        <v>0.3803394711445981</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.3727063333333334</v>
+      </c>
+      <c r="N10">
+        <v>1.118119</v>
+      </c>
+      <c r="O10">
+        <v>0.3720585793466908</v>
+      </c>
+      <c r="P10">
+        <v>0.3720585793466908</v>
+      </c>
+      <c r="Q10">
+        <v>8.582290350820889</v>
+      </c>
+      <c r="R10">
+        <v>77.240613157388</v>
+      </c>
+      <c r="S10">
+        <v>0.1388119705158734</v>
+      </c>
+      <c r="T10">
+        <v>0.1415085633035309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>30.10944066666667</v>
+      </c>
+      <c r="H11">
+        <v>90.328322</v>
+      </c>
+      <c r="I11">
+        <v>0.4878449943837915</v>
+      </c>
+      <c r="J11">
+        <v>0.4973219817679575</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.5420666666666666</v>
+      </c>
+      <c r="N11">
+        <v>1.6262</v>
+      </c>
+      <c r="O11">
+        <v>0.541124568792399</v>
+      </c>
+      <c r="P11">
+        <v>0.541124568792399</v>
+      </c>
+      <c r="Q11">
+        <v>16.32132413737778</v>
+      </c>
+      <c r="R11">
+        <v>146.8919172364</v>
+      </c>
+      <c r="S11">
+        <v>0.2639849122234595</v>
+      </c>
+      <c r="T11">
+        <v>0.2691131429351673</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>30.10944066666667</v>
+      </c>
+      <c r="H12">
+        <v>90.328322</v>
+      </c>
+      <c r="I12">
+        <v>0.4878449943837915</v>
+      </c>
+      <c r="J12">
+        <v>0.4973219817679575</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.086968</v>
+      </c>
+      <c r="N12">
+        <v>0.260904</v>
+      </c>
+      <c r="O12">
+        <v>0.08681685186091016</v>
+      </c>
+      <c r="P12">
+        <v>0.08681685186091016</v>
+      </c>
+      <c r="Q12">
+        <v>2.618557835898667</v>
+      </c>
+      <c r="R12">
+        <v>23.567020523088</v>
+      </c>
+      <c r="S12">
+        <v>0.04235316660850418</v>
+      </c>
+      <c r="T12">
+        <v>0.04317592881832303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>30.10944066666667</v>
+      </c>
+      <c r="H13">
+        <v>90.328322</v>
+      </c>
+      <c r="I13">
+        <v>0.4878449943837915</v>
+      </c>
+      <c r="J13">
+        <v>0.4973219817679575</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.3727063333333334</v>
+      </c>
+      <c r="N13">
+        <v>1.118119</v>
+      </c>
+      <c r="O13">
+        <v>0.3720585793466908</v>
+      </c>
+      <c r="P13">
+        <v>0.3720585793466908</v>
+      </c>
+      <c r="Q13">
+        <v>11.22197922959089</v>
+      </c>
+      <c r="R13">
+        <v>100.997813066318</v>
+      </c>
+      <c r="S13">
+        <v>0.1815069155518278</v>
+      </c>
+      <c r="T13">
+        <v>0.1850329100144671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.451068</v>
+      </c>
+      <c r="H14">
+        <v>1.353204</v>
+      </c>
+      <c r="I14">
+        <v>0.007308381061037801</v>
+      </c>
+      <c r="J14">
+        <v>0.007450355327272958</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.5420666666666666</v>
+      </c>
+      <c r="N14">
+        <v>1.6262</v>
+      </c>
+      <c r="O14">
+        <v>0.541124568792399</v>
+      </c>
+      <c r="P14">
+        <v>0.541124568792399</v>
+      </c>
+      <c r="Q14">
+        <v>0.2445089271999999</v>
+      </c>
+      <c r="R14">
+        <v>2.2005803448</v>
+      </c>
+      <c r="S14">
+        <v>0.003954744550224615</v>
+      </c>
+      <c r="T14">
+        <v>0.004031570313820731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.451068</v>
+      </c>
+      <c r="H15">
+        <v>1.353204</v>
+      </c>
+      <c r="I15">
+        <v>0.007308381061037801</v>
+      </c>
+      <c r="J15">
+        <v>0.007450355327272958</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.086968</v>
+      </c>
+      <c r="N15">
+        <v>0.260904</v>
+      </c>
+      <c r="O15">
+        <v>0.08681685186091016</v>
+      </c>
+      <c r="P15">
+        <v>0.08681685186091016</v>
+      </c>
+      <c r="Q15">
+        <v>0.039228481824</v>
+      </c>
+      <c r="R15">
+        <v>0.353056336416</v>
+      </c>
+      <c r="S15">
+        <v>0.0006344906359192001</v>
+      </c>
+      <c r="T15">
+        <v>0.0006468163947589992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.451068</v>
+      </c>
+      <c r="H16">
+        <v>1.353204</v>
+      </c>
+      <c r="I16">
+        <v>0.007308381061037801</v>
+      </c>
+      <c r="J16">
+        <v>0.007450355327272958</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.3727063333333334</v>
+      </c>
+      <c r="N16">
+        <v>1.118119</v>
+      </c>
+      <c r="O16">
+        <v>0.3720585793466908</v>
+      </c>
+      <c r="P16">
+        <v>0.3720585793466908</v>
+      </c>
+      <c r="Q16">
+        <v>0.168115900364</v>
+      </c>
+      <c r="R16">
+        <v>1.513043103276</v>
+      </c>
+      <c r="S16">
+        <v>0.002719145874893985</v>
+      </c>
+      <c r="T16">
+        <v>0.002771968618693226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.48332006399719</v>
-      </c>
-      <c r="H5">
-        <v>2.48332006399719</v>
-      </c>
-      <c r="I5">
-        <v>0.04343841320833904</v>
-      </c>
-      <c r="J5">
-        <v>0.04343841320833904</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.443981297567456</v>
-      </c>
-      <c r="N5">
-        <v>0.443981297567456</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1.10254766428877</v>
-      </c>
-      <c r="R5">
-        <v>1.10254766428877</v>
-      </c>
-      <c r="S5">
-        <v>0.04343841320833904</v>
-      </c>
-      <c r="T5">
-        <v>0.04343841320833904</v>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.43071</v>
+      </c>
+      <c r="H17">
+        <v>6.86142</v>
+      </c>
+      <c r="I17">
+        <v>0.05558571210973289</v>
+      </c>
+      <c r="J17">
+        <v>0.03777702183089705</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5420666666666666</v>
+      </c>
+      <c r="N17">
+        <v>1.6262</v>
+      </c>
+      <c r="O17">
+        <v>0.541124568792399</v>
+      </c>
+      <c r="P17">
+        <v>0.541124568792399</v>
+      </c>
+      <c r="Q17">
+        <v>1.859673534</v>
+      </c>
+      <c r="R17">
+        <v>11.158041204</v>
+      </c>
+      <c r="S17">
+        <v>0.03007879449639764</v>
+      </c>
+      <c r="T17">
+        <v>0.02044207464850521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.43071</v>
+      </c>
+      <c r="H18">
+        <v>6.86142</v>
+      </c>
+      <c r="I18">
+        <v>0.05558571210973289</v>
+      </c>
+      <c r="J18">
+        <v>0.03777702183089705</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.086968</v>
+      </c>
+      <c r="N18">
+        <v>0.260904</v>
+      </c>
+      <c r="O18">
+        <v>0.08681685186091016</v>
+      </c>
+      <c r="P18">
+        <v>0.08681685186091016</v>
+      </c>
+      <c r="Q18">
+        <v>0.29836198728</v>
+      </c>
+      <c r="R18">
+        <v>1.79017192368</v>
+      </c>
+      <c r="S18">
+        <v>0.004825776533813881</v>
+      </c>
+      <c r="T18">
+        <v>0.003279682108039359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.43071</v>
+      </c>
+      <c r="H19">
+        <v>6.86142</v>
+      </c>
+      <c r="I19">
+        <v>0.05558571210973289</v>
+      </c>
+      <c r="J19">
+        <v>0.03777702183089705</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.3727063333333334</v>
+      </c>
+      <c r="N19">
+        <v>1.118119</v>
+      </c>
+      <c r="O19">
+        <v>0.3720585793466908</v>
+      </c>
+      <c r="P19">
+        <v>0.3720585793466908</v>
+      </c>
+      <c r="Q19">
+        <v>1.27864734483</v>
+      </c>
+      <c r="R19">
+        <v>7.671884068980001</v>
+      </c>
+      <c r="S19">
+        <v>0.02068114107952137</v>
+      </c>
+      <c r="T19">
+        <v>0.01405526507435248</v>
       </c>
     </row>
   </sheetData>
